--- a/BN/wwwroot/Database/HRGIS_TRAINING_TestCase_ICD_rev01.xlsx
+++ b/BN/wwwroot/Database/HRGIS_TRAINING_TestCase_ICD_rev01.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\cptfile01\Dept\2230\20_App\30_CPT_Original\08_Project Repository\2200_CPD\[ICD]_HRGIS_TRAINING\04_Testcase\REV01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\SYS\BN\wwwroot\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4683C69-981F-439E-98BF-E54A425F2FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11475"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page1" sheetId="3" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="305">
   <si>
     <t>Project Test Cases</t>
   </si>
@@ -206,15 +207,6 @@
     <t>Center manager</t>
   </si>
   <si>
-    <t>Show center list</t>
-  </si>
-  <si>
-    <t>Add employee to center role</t>
-  </si>
-  <si>
-    <t>Delete employee to center role</t>
-  </si>
-  <si>
     <t>สามารถ export ออกมาเป็นไฟล์ excel ได้</t>
   </si>
   <si>
@@ -924,16 +916,49 @@
   </si>
   <si>
     <t>แสดงรายรายละเอียดของคอร์สแบบคร่าวๆ พร้อมนับจำนวนคนที่เข้าเรียน master course นั้น ได้อย่างถูกร้อง เรียงดับจากวันที่เริ่มคอร์สจากปจจุบันไปอดีต</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>ไม่สามารถลบ center ทั้งหมดได้ ต้องเหลือ center อย่างน้อย 1 คน</t>
+  </si>
+  <si>
+    <t>หากเป็นผู้ใช้งานทั่วไป จะสามารถมองเห็นลิสต์รายชื่อเท่านั้น แต่ไม่สามารถเพิ่มหรือลบได้</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>ข้อมูลพนักงานแสดงได้ถูกต้อง</t>
+  </si>
+  <si>
+    <t>หากเป็น center จะสามารถเพิ่มหรือลบ center ได้</t>
+  </si>
+  <si>
+    <t>2.7</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>หากเป็น center จะสามารถเพิ่มหรือแก้ไข Committee และ Approver ได้</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>สามารถ export ข้อมูลออกมาเป็นไฟล์ excel ได้</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -984,6 +1009,11 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1095,7 +1125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1295,14 +1325,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1343,9 +1379,29 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="61">
+  <dxfs count="63">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2231,32 +2287,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J148"/>
+  <dimension ref="A1:J152"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B119" sqref="B119"/>
+      <pane ySplit="12" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="42.625" customWidth="1"/>
-    <col min="3" max="6" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="12.58203125" customWidth="1"/>
+    <col min="2" max="2" width="42.58203125" customWidth="1"/>
+    <col min="3" max="6" width="12.58203125" customWidth="1"/>
     <col min="7" max="7" width="7.5" customWidth="1"/>
-    <col min="8" max="9" width="12.625" customWidth="1"/>
+    <col min="8" max="9" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="23" x14ac:dyDescent="0.5">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" s="8" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -2272,10 +2328,10 @@
       <c r="E3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="80" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="79"/>
+      <c r="G3" s="81"/>
       <c r="H3" s="9" t="s">
         <v>3</v>
       </c>
@@ -2283,18 +2339,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" s="8" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -2315,64 +2371,64 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="83" t="s">
+      <c r="B7" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="85"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="87"/>
       <c r="E7" s="56">
         <v>44621</v>
       </c>
-      <c r="F7" s="80" t="s">
+      <c r="F7" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="82"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
       <c r="I7" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8" s="84"/>
-      <c r="D8" s="85"/>
+        <v>294</v>
+      </c>
+      <c r="B8" s="85" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="86"/>
+      <c r="D8" s="87"/>
       <c r="E8" s="22">
         <v>44639</v>
       </c>
-      <c r="F8" s="80" t="s">
-        <v>158</v>
-      </c>
-      <c r="G8" s="81"/>
-      <c r="H8" s="82"/>
+      <c r="F8" s="82" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
       <c r="I8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
-      <c r="B9" s="83"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="87"/>
       <c r="E9" s="22"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="84"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -2382,7 +2438,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:10" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" s="8" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -2407,27 +2463,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B13" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="75"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="37"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="77"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="79"/>
       <c r="I13" s="38"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B14" s="40" t="s">
-        <v>57</v>
+        <v>296</v>
       </c>
       <c r="C14" s="34" t="s">
         <v>12</v>
@@ -2437,22 +2493,22 @@
       <c r="F14" s="27">
         <v>44634</v>
       </c>
-      <c r="G14" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H14" s="71"/>
+      <c r="G14" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" s="75"/>
       <c r="I14" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="B15" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15" s="70" t="s">
         <v>12</v>
       </c>
       <c r="D15" s="72"/>
@@ -2460,20 +2516,20 @@
       <c r="F15" s="27">
         <v>44634</v>
       </c>
-      <c r="G15" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H15" s="71"/>
+      <c r="G15" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H15" s="75"/>
       <c r="I15" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B16" s="40" t="s">
-        <v>59</v>
+        <v>298</v>
       </c>
       <c r="C16" s="34" t="s">
         <v>12</v>
@@ -2483,20 +2539,20 @@
       <c r="F16" s="27">
         <v>44634</v>
       </c>
-      <c r="G16" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H16" s="71"/>
+      <c r="G16" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="75"/>
       <c r="I16" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="33" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>60</v>
+        <v>295</v>
       </c>
       <c r="C17" s="34" t="s">
         <v>12</v>
@@ -2506,60 +2562,60 @@
       <c r="F17" s="27">
         <v>44634</v>
       </c>
-      <c r="G17" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H17" s="71"/>
+      <c r="G17" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" s="75"/>
       <c r="I17" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="72"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="27">
+        <v>44634</v>
+      </c>
+      <c r="G18" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="75"/>
+      <c r="I18" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="35">
         <v>2</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B19" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="38"/>
-    </row>
-    <row r="19" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>167</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="27">
-        <v>44634</v>
-      </c>
-      <c r="G19" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H19" s="71"/>
-      <c r="I19" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C19" s="43"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="78"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="38"/>
+    </row>
+    <row r="20" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="B20" s="58" t="s">
-        <v>287</v>
-      </c>
-      <c r="C20" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="B20" s="71" t="s">
+        <v>296</v>
+      </c>
+      <c r="C20" s="70" t="s">
         <v>12</v>
       </c>
       <c r="D20" s="72"/>
@@ -2567,22 +2623,22 @@
       <c r="F20" s="27">
         <v>44634</v>
       </c>
-      <c r="G20" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H20" s="71"/>
+      <c r="G20" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H20" s="75"/>
       <c r="I20" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
-        <v>285</v>
-      </c>
-      <c r="B21" s="67" t="s">
-        <v>288</v>
-      </c>
-      <c r="C21" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="B21" s="71" t="s">
+        <v>302</v>
+      </c>
+      <c r="C21" s="70" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="72"/>
@@ -2590,22 +2646,22 @@
       <c r="F21" s="27">
         <v>44634</v>
       </c>
-      <c r="G21" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H21" s="71"/>
+      <c r="G21" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="75"/>
       <c r="I21" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="B22" s="67" t="s">
         <v>282</v>
       </c>
-      <c r="C22" s="65" t="s">
+      <c r="B22" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D22" s="72"/>
@@ -2613,22 +2669,22 @@
       <c r="F22" s="27">
         <v>44634</v>
       </c>
-      <c r="G22" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H22" s="71"/>
+      <c r="G22" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="75"/>
       <c r="I22" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="B23" s="54" t="s">
-        <v>280</v>
-      </c>
-      <c r="C23" s="55" t="s">
+        <v>278</v>
+      </c>
+      <c r="B23" s="58" t="s">
+        <v>284</v>
+      </c>
+      <c r="C23" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D23" s="72"/>
@@ -2636,22 +2692,22 @@
       <c r="F23" s="27">
         <v>44634</v>
       </c>
-      <c r="G23" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H23" s="71"/>
+      <c r="G23" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H23" s="75"/>
       <c r="I23" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A24" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="B24" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>285</v>
+      </c>
+      <c r="C24" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D24" s="72"/>
@@ -2659,152 +2715,150 @@
       <c r="F24" s="27">
         <v>44634</v>
       </c>
-      <c r="G24" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H24" s="71"/>
+      <c r="G24" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H24" s="75"/>
       <c r="I24" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="36"/>
-      <c r="D25" s="74"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="38"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A25" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>279</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="27">
+        <v>44634</v>
+      </c>
+      <c r="G25" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="75"/>
+      <c r="I25" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="B26" s="54" t="s">
+        <v>277</v>
+      </c>
+      <c r="C26" s="55" t="s">
         <v>12</v>
       </c>
       <c r="D26" s="72"/>
       <c r="E26" s="73"/>
       <c r="F26" s="27">
-        <v>44635</v>
-      </c>
-      <c r="G26" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H26" s="71"/>
+        <v>44634</v>
+      </c>
+      <c r="G26" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H26" s="75"/>
       <c r="I26" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="C27" s="34" t="s">
+        <v>301</v>
+      </c>
+      <c r="B27" s="71" t="s">
+        <v>163</v>
+      </c>
+      <c r="C27" s="70" t="s">
         <v>12</v>
       </c>
       <c r="D27" s="72"/>
       <c r="E27" s="73"/>
       <c r="F27" s="27">
-        <v>44635</v>
-      </c>
-      <c r="G27" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H27" s="71"/>
+        <v>44634</v>
+      </c>
+      <c r="G27" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H27" s="75"/>
       <c r="I27" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="34" t="s">
+        <v>303</v>
+      </c>
+      <c r="B28" s="71" t="s">
+        <v>304</v>
+      </c>
+      <c r="C28" s="70" t="s">
         <v>12</v>
       </c>
       <c r="D28" s="72"/>
       <c r="E28" s="73"/>
       <c r="F28" s="27">
-        <v>44635</v>
-      </c>
-      <c r="G28" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H28" s="71"/>
+        <v>44634</v>
+      </c>
+      <c r="G28" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H28" s="75"/>
       <c r="I28" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" s="72" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29" s="73"/>
-      <c r="F29" s="27">
-        <v>44635</v>
-      </c>
-      <c r="G29" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H29" s="71"/>
-      <c r="I29" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="35" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="36"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="78"/>
+      <c r="H29" s="79"/>
+      <c r="I29" s="38"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="33" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B30" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="63"/>
-      <c r="E30" s="64"/>
+        <v>50</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
       <c r="F30" s="27">
         <v>44635</v>
       </c>
-      <c r="G30" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H30" s="71"/>
+      <c r="G30" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H30" s="75"/>
       <c r="I30" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C31" s="34" t="s">
         <v>12</v>
@@ -2814,152 +2868,152 @@
       <c r="F31" s="27">
         <v>44635</v>
       </c>
-      <c r="G31" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H31" s="71"/>
+      <c r="G31" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H31" s="75"/>
       <c r="I31" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="B32" s="42" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="38"/>
-    </row>
-    <row r="33" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A32" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="72"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="27">
+        <v>44635</v>
+      </c>
+      <c r="G32" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H32" s="75"/>
+      <c r="I32" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="B33" s="51" t="s">
-        <v>279</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="72"/>
+        <v>145</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="72" t="s">
+        <v>126</v>
+      </c>
       <c r="E33" s="73"/>
       <c r="F33" s="27">
-        <v>44641</v>
-      </c>
-      <c r="G33" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H33" s="71"/>
+        <v>44635</v>
+      </c>
+      <c r="G33" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" s="75"/>
       <c r="I33" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="B34" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="C34" s="62" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="72"/>
-      <c r="E34" s="73"/>
+        <v>147</v>
+      </c>
+      <c r="B34" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="63"/>
+      <c r="E34" s="64"/>
       <c r="F34" s="27">
-        <v>44641</v>
-      </c>
-      <c r="G34" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H34" s="71"/>
+        <v>44635</v>
+      </c>
+      <c r="G34" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="75"/>
       <c r="I34" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="B35" s="51" t="s">
-        <v>152</v>
-      </c>
-      <c r="C35" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D35" s="72"/>
       <c r="E35" s="73"/>
       <c r="F35" s="27">
-        <v>44641</v>
-      </c>
-      <c r="G35" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H35" s="71"/>
+        <v>44635</v>
+      </c>
+      <c r="G35" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H35" s="75"/>
       <c r="I35" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="B36" s="51" t="s">
-        <v>153</v>
-      </c>
-      <c r="C36" s="62" t="s">
-        <v>13</v>
-      </c>
-      <c r="D36" s="72" t="s">
-        <v>154</v>
-      </c>
-      <c r="E36" s="73"/>
-      <c r="F36" s="27">
-        <v>44631</v>
-      </c>
-      <c r="G36" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H36" s="71"/>
-      <c r="I36" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B36" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="53"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="77"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="78"/>
+      <c r="H36" s="79"/>
+      <c r="I36" s="38"/>
+    </row>
+    <row r="37" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A37" s="33" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B37" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="C37" s="52" t="s">
         <v>12</v>
       </c>
       <c r="D37" s="72"/>
       <c r="E37" s="73"/>
       <c r="F37" s="27">
-        <v>44631</v>
-      </c>
-      <c r="G37" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H37" s="71"/>
+        <v>44641</v>
+      </c>
+      <c r="G37" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H37" s="75"/>
       <c r="I37" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B38" s="51" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C38" s="62" t="s">
         <v>12</v>
@@ -2967,131 +3021,131 @@
       <c r="D38" s="72"/>
       <c r="E38" s="73"/>
       <c r="F38" s="27">
-        <v>44631</v>
-      </c>
-      <c r="G38" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H38" s="71"/>
+        <v>44641</v>
+      </c>
+      <c r="G38" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H38" s="75"/>
       <c r="I38" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="75"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="76"/>
-      <c r="H39" s="77"/>
-      <c r="I39" s="38"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="A39" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="72"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="27">
+        <v>44641</v>
+      </c>
+      <c r="G39" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H39" s="75"/>
+      <c r="I39" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="72"/>
+        <v>169</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="72" t="s">
+        <v>151</v>
+      </c>
       <c r="E40" s="73"/>
       <c r="F40" s="27">
-        <v>44622</v>
-      </c>
-      <c r="G40" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H40" s="71"/>
+        <v>44631</v>
+      </c>
+      <c r="G40" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H40" s="75"/>
       <c r="I40" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="B41" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B41" s="51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C41" s="62" t="s">
         <v>12</v>
       </c>
       <c r="D41" s="72"/>
       <c r="E41" s="73"/>
       <c r="F41" s="27">
-        <v>44622</v>
-      </c>
-      <c r="G41" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H41" s="71"/>
+        <v>44631</v>
+      </c>
+      <c r="G41" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H41" s="75"/>
       <c r="I41" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A42" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="B42" s="40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="72" t="s">
-        <v>135</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B42" s="51" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="D42" s="72"/>
       <c r="E42" s="73"/>
       <c r="F42" s="27">
-        <v>44622</v>
-      </c>
-      <c r="G42" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42" s="71"/>
+        <v>44631</v>
+      </c>
+      <c r="G42" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H42" s="75"/>
       <c r="I42" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="B43" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="C43" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D43" s="72"/>
-      <c r="E43" s="73"/>
-      <c r="F43" s="27">
-        <v>44622</v>
-      </c>
-      <c r="G43" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H43" s="71"/>
-      <c r="I43" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="43"/>
+      <c r="D43" s="76"/>
+      <c r="E43" s="77"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="78"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="38"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C44" s="34" t="s">
         <v>12</v>
@@ -3101,70 +3155,70 @@
       <c r="F44" s="27">
         <v>44622</v>
       </c>
-      <c r="G44" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H44" s="71"/>
+      <c r="G44" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H44" s="75"/>
       <c r="I44" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B45" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="72" t="s">
-        <v>143</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C45" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D45" s="72"/>
       <c r="E45" s="73"/>
       <c r="F45" s="27">
         <v>44622</v>
       </c>
-      <c r="G45" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H45" s="71"/>
+      <c r="G45" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H45" s="75"/>
       <c r="I45" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B46" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D46" s="72"/>
+        <v>60</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46" s="72" t="s">
+        <v>132</v>
+      </c>
       <c r="E46" s="73"/>
       <c r="F46" s="27">
         <v>44622</v>
       </c>
-      <c r="G46" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H46" s="71"/>
+      <c r="G46" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H46" s="75"/>
       <c r="I46" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B47" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="C47" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D47" s="72"/>
@@ -3172,22 +3226,22 @@
       <c r="F47" s="27">
         <v>44622</v>
       </c>
-      <c r="G47" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H47" s="71"/>
+      <c r="G47" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H47" s="75"/>
       <c r="I47" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B48" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="C48" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D48" s="72"/>
@@ -3195,83 +3249,93 @@
       <c r="F48" s="27">
         <v>44622</v>
       </c>
-      <c r="G48" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H48" s="71"/>
+      <c r="G48" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H48" s="75"/>
       <c r="I48" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A49" s="33" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="B49" s="40" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C49" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D49" s="72"/>
+        <v>13</v>
+      </c>
+      <c r="D49" s="72" t="s">
+        <v>140</v>
+      </c>
       <c r="E49" s="73"/>
       <c r="F49" s="27">
         <v>44622</v>
       </c>
-      <c r="G49" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H49" s="71"/>
+      <c r="G49" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H49" s="75"/>
       <c r="I49" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="35" t="s">
-        <v>186</v>
-      </c>
-      <c r="B50" s="42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C50" s="43"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="76"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="38"/>
-    </row>
-    <row r="51" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B50" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="72"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="27">
+        <v>44622</v>
+      </c>
+      <c r="G50" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H50" s="75"/>
+      <c r="I50" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="33" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B51" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C51" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" s="45" t="s">
         <v>12</v>
       </c>
       <c r="D51" s="72"/>
       <c r="E51" s="73"/>
       <c r="F51" s="27">
-        <v>44631</v>
-      </c>
-      <c r="G51" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H51" s="71"/>
+        <v>44622</v>
+      </c>
+      <c r="G51" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H51" s="75"/>
       <c r="I51" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="33" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B52" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" s="45" t="s">
         <v>12</v>
       </c>
       <c r="D52" s="72"/>
@@ -3279,93 +3343,83 @@
       <c r="F52" s="27">
         <v>44622</v>
       </c>
-      <c r="G52" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H52" s="71"/>
+      <c r="G52" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H52" s="75"/>
       <c r="I52" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B53" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="C53" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C53" s="45" t="s">
         <v>12</v>
       </c>
       <c r="D53" s="72"/>
       <c r="E53" s="73"/>
       <c r="F53" s="27">
-        <v>44623</v>
-      </c>
-      <c r="G53" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H53" s="71"/>
+        <v>44622</v>
+      </c>
+      <c r="G53" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H53" s="75"/>
       <c r="I53" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="B54" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C54" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="72"/>
-      <c r="E54" s="73"/>
-      <c r="F54" s="27">
-        <v>44622</v>
-      </c>
-      <c r="G54" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H54" s="71"/>
-      <c r="I54" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="43"/>
+      <c r="D54" s="76"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="78"/>
+      <c r="H54" s="79"/>
+      <c r="I54" s="38"/>
+    </row>
+    <row r="55" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A55" s="33" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B55" s="40" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C55" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" s="72" t="s">
-        <v>131</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D55" s="72"/>
       <c r="E55" s="73"/>
       <c r="F55" s="27">
-        <v>44622</v>
-      </c>
-      <c r="G55" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H55" s="71"/>
+        <v>44631</v>
+      </c>
+      <c r="G55" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H55" s="75"/>
       <c r="I55" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="33" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B56" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C56" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D56" s="72"/>
@@ -3373,43 +3427,43 @@
       <c r="F56" s="27">
         <v>44622</v>
       </c>
-      <c r="G56" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H56" s="71"/>
+      <c r="G56" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H56" s="75"/>
       <c r="I56" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="33" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B57" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C57" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D57" s="72"/>
       <c r="E57" s="73"/>
       <c r="F57" s="27">
-        <v>44622</v>
-      </c>
-      <c r="G57" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H57" s="71"/>
+        <v>44623</v>
+      </c>
+      <c r="G57" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H57" s="75"/>
       <c r="I57" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="33" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="B58" s="40" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C58" s="34" t="s">
         <v>12</v>
@@ -3419,70 +3473,70 @@
       <c r="F58" s="27">
         <v>44622</v>
       </c>
-      <c r="G58" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H58" s="71"/>
+      <c r="G58" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H58" s="75"/>
       <c r="I58" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" s="72" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="B59" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D59" s="72"/>
       <c r="E59" s="73"/>
       <c r="F59" s="27">
         <v>44622</v>
       </c>
-      <c r="G59" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H59" s="71"/>
+      <c r="G59" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H59" s="75"/>
       <c r="I59" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="33" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B60" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="72" t="s">
-        <v>130</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C60" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D60" s="72"/>
       <c r="E60" s="73"/>
       <c r="F60" s="27">
         <v>44622</v>
       </c>
-      <c r="G60" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H60" s="71"/>
+      <c r="G60" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H60" s="75"/>
       <c r="I60" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="33" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B61" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="C61" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" s="45" t="s">
         <v>12</v>
       </c>
       <c r="D61" s="72"/>
@@ -3490,35 +3544,43 @@
       <c r="F61" s="27">
         <v>44622</v>
       </c>
-      <c r="G61" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H61" s="71"/>
+      <c r="G61" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H61" s="75"/>
       <c r="I61" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="35" t="s">
-        <v>198</v>
-      </c>
-      <c r="B62" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C62" s="43"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="75"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="76"/>
-      <c r="H62" s="77"/>
-      <c r="I62" s="38"/>
-    </row>
-    <row r="63" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B62" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D62" s="72"/>
+      <c r="E62" s="73"/>
+      <c r="F62" s="27">
+        <v>44622</v>
+      </c>
+      <c r="G62" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H62" s="75"/>
+      <c r="I62" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="33" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B63" s="40" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C63" s="34" t="s">
         <v>12</v>
@@ -3528,43 +3590,45 @@
       <c r="F63" s="27">
         <v>44622</v>
       </c>
-      <c r="G63" s="70" t="s">
+      <c r="G63" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H63" s="75"/>
+      <c r="I63" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="B64" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="H63" s="71"/>
-      <c r="I63" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="B64" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C64" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D64" s="72"/>
       <c r="E64" s="73"/>
       <c r="F64" s="27">
         <v>44622</v>
       </c>
-      <c r="G64" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H64" s="71"/>
+      <c r="G64" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H64" s="75"/>
       <c r="I64" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="33" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B65" s="40" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C65" s="34" t="s">
         <v>12</v>
@@ -3572,72 +3636,62 @@
       <c r="D65" s="72"/>
       <c r="E65" s="73"/>
       <c r="F65" s="27">
-        <v>44631</v>
-      </c>
-      <c r="G65" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H65" s="71"/>
+        <v>44622</v>
+      </c>
+      <c r="G65" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H65" s="75"/>
       <c r="I65" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="33" t="s">
-        <v>202</v>
-      </c>
-      <c r="B66" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C66" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D66" s="72"/>
-      <c r="E66" s="73"/>
-      <c r="F66" s="27">
-        <v>44622</v>
-      </c>
-      <c r="G66" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H66" s="71"/>
-      <c r="I66" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="B66" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="43"/>
+      <c r="D66" s="76"/>
+      <c r="E66" s="77"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="78"/>
+      <c r="H66" s="79"/>
+      <c r="I66" s="38"/>
+    </row>
+    <row r="67" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" s="33" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B67" s="40" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D67" s="72" t="s">
-        <v>131</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D67" s="72"/>
       <c r="E67" s="73"/>
       <c r="F67" s="27">
         <v>44622</v>
       </c>
-      <c r="G67" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H67" s="71"/>
+      <c r="G67" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H67" s="75"/>
       <c r="I67" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A68" s="33" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B68" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C68" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D68" s="72"/>
@@ -3645,20 +3699,20 @@
       <c r="F68" s="27">
         <v>44622</v>
       </c>
-      <c r="G68" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H68" s="71"/>
+      <c r="G68" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H68" s="75"/>
       <c r="I68" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A69" s="33" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B69" s="40" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C69" s="34" t="s">
         <v>12</v>
@@ -3666,22 +3720,22 @@
       <c r="D69" s="72"/>
       <c r="E69" s="73"/>
       <c r="F69" s="27">
-        <v>44622</v>
-      </c>
-      <c r="G69" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H69" s="71"/>
+        <v>44631</v>
+      </c>
+      <c r="G69" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H69" s="75"/>
       <c r="I69" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="33" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B70" s="40" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C70" s="34" t="s">
         <v>12</v>
@@ -3691,66 +3745,68 @@
       <c r="F70" s="27">
         <v>44622</v>
       </c>
-      <c r="G70" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H70" s="71"/>
+      <c r="G70" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H70" s="75"/>
       <c r="I70" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="B71" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C71" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="72" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="B71" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="C71" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D71" s="72"/>
       <c r="E71" s="73"/>
       <c r="F71" s="27">
         <v>44622</v>
       </c>
-      <c r="G71" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H71" s="71"/>
+      <c r="G71" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H71" s="75"/>
       <c r="I71" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="56" x14ac:dyDescent="0.3">
       <c r="A72" s="33" t="s">
-        <v>70</v>
+        <v>201</v>
       </c>
       <c r="B72" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C72" s="41" t="s">
         <v>12</v>
       </c>
       <c r="D72" s="72"/>
       <c r="E72" s="73"/>
       <c r="F72" s="27">
-        <v>44631</v>
-      </c>
-      <c r="G72" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H72" s="71"/>
+        <v>44622</v>
+      </c>
+      <c r="G72" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H72" s="75"/>
       <c r="I72" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="33" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B73" s="40" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C73" s="34" t="s">
         <v>12</v>
@@ -3760,45 +3816,43 @@
       <c r="F73" s="27">
         <v>44622</v>
       </c>
-      <c r="G73" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H73" s="71"/>
+      <c r="G73" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H73" s="75"/>
       <c r="I73" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="33" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B74" s="40" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" s="45" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" s="72" t="s">
-        <v>130</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C74" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="72"/>
       <c r="E74" s="73"/>
       <c r="F74" s="27">
         <v>44622</v>
       </c>
-      <c r="G74" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H74" s="71"/>
+      <c r="G74" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H74" s="75"/>
       <c r="I74" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="33" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B75" s="40" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C75" s="45" t="s">
         <v>12</v>
@@ -3808,87 +3862,93 @@
       <c r="F75" s="27">
         <v>44622</v>
       </c>
-      <c r="G75" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H75" s="71"/>
+      <c r="G75" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H75" s="75"/>
       <c r="I75" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="B76" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="C76" s="39"/>
-      <c r="D76" s="74"/>
-      <c r="E76" s="75"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="76"/>
-      <c r="H76" s="77"/>
-      <c r="I76" s="38"/>
-    </row>
-    <row r="77" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="A76" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B76" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C76" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="72"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="27">
+        <v>44631</v>
+      </c>
+      <c r="G76" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H76" s="75"/>
+      <c r="I76" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="33" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B77" s="40" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C77" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D77" s="72" t="s">
-        <v>140</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D77" s="72"/>
       <c r="E77" s="73"/>
       <c r="F77" s="27">
-        <v>44631</v>
-      </c>
-      <c r="G77" s="70" t="s">
+        <v>44622</v>
+      </c>
+      <c r="G77" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H77" s="75"/>
+      <c r="I77" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="33" t="s">
+        <v>206</v>
+      </c>
+      <c r="B78" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" s="72" t="s">
         <v>127</v>
-      </c>
-      <c r="H77" s="71"/>
-      <c r="I77" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="B78" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C78" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="72" t="s">
-        <v>136</v>
       </c>
       <c r="E78" s="73"/>
       <c r="F78" s="27">
         <v>44622</v>
       </c>
-      <c r="G78" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H78" s="71"/>
+      <c r="G78" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H78" s="75"/>
       <c r="I78" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="56" x14ac:dyDescent="0.3">
       <c r="A79" s="33" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B79" s="40" t="s">
-        <v>74</v>
-      </c>
-      <c r="C79" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C79" s="45" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="72"/>
@@ -3896,93 +3956,87 @@
       <c r="F79" s="27">
         <v>44622</v>
       </c>
-      <c r="G79" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H79" s="71"/>
+      <c r="G79" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H79" s="75"/>
       <c r="I79" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="33" t="s">
-        <v>215</v>
-      </c>
-      <c r="B80" s="40" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D80" s="72"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="27">
-        <v>44622</v>
-      </c>
-      <c r="G80" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H80" s="71"/>
-      <c r="I80" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="B80" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" s="39"/>
+      <c r="D80" s="76"/>
+      <c r="E80" s="77"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="78"/>
+      <c r="H80" s="79"/>
+      <c r="I80" s="38"/>
+    </row>
+    <row r="81" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="33" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B81" s="40" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C81" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D81" s="72" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E81" s="73"/>
       <c r="F81" s="27">
-        <v>44622</v>
-      </c>
-      <c r="G81" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H81" s="71"/>
+        <v>44631</v>
+      </c>
+      <c r="G81" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H81" s="75"/>
       <c r="I81" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A82" s="33" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B82" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C82" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D82" s="72"/>
+        <v>70</v>
+      </c>
+      <c r="C82" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" s="72" t="s">
+        <v>133</v>
+      </c>
       <c r="E82" s="73"/>
       <c r="F82" s="27">
         <v>44622</v>
       </c>
-      <c r="G82" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H82" s="71"/>
+      <c r="G82" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H82" s="75"/>
       <c r="I82" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A83" s="33" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B83" s="40" t="s">
-        <v>78</v>
-      </c>
-      <c r="C83" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C83" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="72"/>
@@ -3990,22 +4044,22 @@
       <c r="F83" s="27">
         <v>44622</v>
       </c>
-      <c r="G83" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H83" s="71"/>
+      <c r="G83" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H83" s="75"/>
       <c r="I83" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="33" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B84" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C84" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84" s="41" t="s">
         <v>12</v>
       </c>
       <c r="D84" s="72"/>
@@ -4013,43 +4067,45 @@
       <c r="F84" s="27">
         <v>44622</v>
       </c>
-      <c r="G84" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H84" s="71"/>
+      <c r="G84" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H84" s="75"/>
       <c r="I84" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="B85" s="40" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" s="72" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="33" t="s">
-        <v>220</v>
-      </c>
-      <c r="B85" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C85" s="46" t="s">
-        <v>12</v>
-      </c>
-      <c r="D85" s="72"/>
       <c r="E85" s="73"/>
       <c r="F85" s="27">
         <v>44622</v>
       </c>
-      <c r="G85" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H85" s="71"/>
+      <c r="G85" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H85" s="75"/>
       <c r="I85" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="56" x14ac:dyDescent="0.3">
       <c r="A86" s="33" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="B86" s="40" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C86" s="46" t="s">
         <v>12</v>
@@ -4059,22 +4115,22 @@
       <c r="F86" s="27">
         <v>44622</v>
       </c>
-      <c r="G86" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H86" s="71"/>
+      <c r="G86" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H86" s="75"/>
       <c r="I86" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="33" t="s">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="B87" s="40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C87" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C87" s="46" t="s">
         <v>12</v>
       </c>
       <c r="D87" s="72"/>
@@ -4082,22 +4138,22 @@
       <c r="F87" s="27">
         <v>44622</v>
       </c>
-      <c r="G87" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H87" s="71"/>
+      <c r="G87" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H87" s="75"/>
       <c r="I87" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="33" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B88" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="C88" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" s="46" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="72"/>
@@ -4105,47 +4161,45 @@
       <c r="F88" s="27">
         <v>44622</v>
       </c>
-      <c r="G88" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H88" s="71"/>
+      <c r="G88" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H88" s="75"/>
       <c r="I88" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="33" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B89" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="C89" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" s="72" t="s">
-        <v>142</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C89" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="D89" s="72"/>
       <c r="E89" s="73"/>
       <c r="F89" s="27">
-        <v>44631</v>
-      </c>
-      <c r="G89" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H89" s="71"/>
+        <v>44622</v>
+      </c>
+      <c r="G89" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H89" s="75"/>
       <c r="I89" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A90" s="33" t="s">
-        <v>223</v>
+        <v>78</v>
       </c>
       <c r="B90" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="C90" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C90" s="46" t="s">
         <v>12</v>
       </c>
       <c r="D90" s="72"/>
@@ -4153,103 +4207,129 @@
       <c r="F90" s="27">
         <v>44622</v>
       </c>
-      <c r="G90" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H90" s="71"/>
+      <c r="G90" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H90" s="75"/>
       <c r="I90" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="35" t="s">
-        <v>224</v>
-      </c>
-      <c r="B91" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="C91" s="43"/>
-      <c r="D91" s="74"/>
-      <c r="E91" s="75"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="76"/>
-      <c r="H91" s="77"/>
-      <c r="I91" s="38"/>
-    </row>
-    <row r="92" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="A91" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="B91" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="C91" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D91" s="72"/>
+      <c r="E91" s="73"/>
+      <c r="F91" s="27">
+        <v>44622</v>
+      </c>
+      <c r="G91" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H91" s="75"/>
+      <c r="I91" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="33" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B92" s="40" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C92" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D92" s="72"/>
       <c r="E92" s="73"/>
-      <c r="F92" s="27"/>
-      <c r="G92" s="70"/>
-      <c r="H92" s="71"/>
-      <c r="I92" s="28"/>
-    </row>
-    <row r="93" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F92" s="27">
+        <v>44622</v>
+      </c>
+      <c r="G92" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H92" s="75"/>
+      <c r="I92" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="33" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B93" s="40" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D93" s="72"/>
+        <v>13</v>
+      </c>
+      <c r="D93" s="72" t="s">
+        <v>139</v>
+      </c>
       <c r="E93" s="73"/>
-      <c r="F93" s="27"/>
-      <c r="G93" s="70"/>
-      <c r="H93" s="71"/>
-      <c r="I93" s="28"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F93" s="27">
+        <v>44631</v>
+      </c>
+      <c r="G93" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H93" s="75"/>
+      <c r="I93" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A94" s="33" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B94" s="40" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C94" s="34" t="s">
         <v>12</v>
       </c>
       <c r="D94" s="72"/>
       <c r="E94" s="73"/>
-      <c r="F94" s="27"/>
-      <c r="G94" s="70"/>
-      <c r="H94" s="71"/>
-      <c r="I94" s="28"/>
-    </row>
-    <row r="95" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A95" s="33" t="s">
-        <v>228</v>
-      </c>
-      <c r="B95" s="40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C95" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="D95" s="72"/>
-      <c r="E95" s="73"/>
-      <c r="F95" s="27"/>
-      <c r="G95" s="70"/>
-      <c r="H95" s="71"/>
-      <c r="I95" s="28"/>
-    </row>
-    <row r="96" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="F94" s="27">
+        <v>44622</v>
+      </c>
+      <c r="G94" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H94" s="75"/>
+      <c r="I94" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="B95" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C95" s="43"/>
+      <c r="D95" s="76"/>
+      <c r="E95" s="77"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="78"/>
+      <c r="H95" s="79"/>
+      <c r="I95" s="38"/>
+    </row>
+    <row r="96" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A96" s="33" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B96" s="40" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C96" s="34" t="s">
         <v>12</v>
@@ -4257,140 +4337,118 @@
       <c r="D96" s="72"/>
       <c r="E96" s="73"/>
       <c r="F96" s="27"/>
-      <c r="G96" s="70"/>
-      <c r="H96" s="71"/>
+      <c r="G96" s="74"/>
+      <c r="H96" s="75"/>
       <c r="I96" s="28"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A97" s="33" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B97" s="40" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D97" s="72"/>
       <c r="E97" s="73"/>
       <c r="F97" s="27"/>
-      <c r="G97" s="70"/>
-      <c r="H97" s="71"/>
+      <c r="G97" s="74"/>
+      <c r="H97" s="75"/>
       <c r="I97" s="28"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="35" t="s">
-        <v>231</v>
-      </c>
-      <c r="B98" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="C98" s="43"/>
-      <c r="D98" s="74"/>
-      <c r="E98" s="75"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="76"/>
-      <c r="H98" s="77"/>
-      <c r="I98" s="38"/>
-    </row>
-    <row r="99" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="B98" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="C98" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D98" s="72"/>
+      <c r="E98" s="73"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="74"/>
+      <c r="H98" s="75"/>
+      <c r="I98" s="28"/>
+    </row>
+    <row r="99" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A99" s="33" t="s">
-        <v>87</v>
+        <v>225</v>
       </c>
       <c r="B99" s="40" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C99" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="72"/>
+      <c r="E99" s="73"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="74"/>
+      <c r="H99" s="75"/>
+      <c r="I99" s="28"/>
+    </row>
+    <row r="100" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+      <c r="A100" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B100" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="C100" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D100" s="72"/>
+      <c r="E100" s="73"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="74"/>
+      <c r="H100" s="75"/>
+      <c r="I100" s="28"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="B101" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C101" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="D99" s="72" t="s">
-        <v>137</v>
-      </c>
-      <c r="E99" s="73"/>
-      <c r="F99" s="27">
-        <v>44631</v>
-      </c>
-      <c r="G99" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H99" s="71"/>
-      <c r="I99" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="B100" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C100" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D100" s="72" t="s">
-        <v>138</v>
-      </c>
-      <c r="E100" s="73"/>
-      <c r="F100" s="27">
-        <v>44631</v>
-      </c>
-      <c r="G100" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H100" s="71"/>
-      <c r="I100" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A101" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B101" s="40" t="s">
-        <v>107</v>
-      </c>
-      <c r="C101" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="D101" s="72" t="s">
-        <v>139</v>
-      </c>
+      <c r="D101" s="72"/>
       <c r="E101" s="73"/>
-      <c r="F101" s="27">
-        <v>44631</v>
-      </c>
-      <c r="G101" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H101" s="71"/>
-      <c r="I101" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F101" s="27"/>
+      <c r="G101" s="74"/>
+      <c r="H101" s="75"/>
+      <c r="I101" s="28"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="35" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B102" s="42" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="C102" s="43"/>
-      <c r="D102" s="74"/>
-      <c r="E102" s="75"/>
+      <c r="D102" s="76"/>
+      <c r="E102" s="77"/>
       <c r="F102" s="37"/>
-      <c r="G102" s="76"/>
-      <c r="H102" s="77"/>
+      <c r="G102" s="78"/>
+      <c r="H102" s="79"/>
       <c r="I102" s="38"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A103" s="33" t="s">
-        <v>232</v>
+        <v>84</v>
       </c>
       <c r="B103" s="40" t="s">
-        <v>108</v>
-      </c>
-      <c r="C103" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C103" s="34" t="s">
         <v>13</v>
       </c>
       <c r="D103" s="72" t="s">
@@ -4398,154 +4456,150 @@
       </c>
       <c r="E103" s="73"/>
       <c r="F103" s="27">
-        <v>44622</v>
-      </c>
-      <c r="G103" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H103" s="71"/>
+        <v>44631</v>
+      </c>
+      <c r="G103" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H103" s="75"/>
       <c r="I103" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A104" s="33" t="s">
-        <v>233</v>
+        <v>85</v>
       </c>
       <c r="B104" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="C104" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="D104" s="72"/>
+        <v>102</v>
+      </c>
+      <c r="C104" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" s="72" t="s">
+        <v>135</v>
+      </c>
       <c r="E104" s="73"/>
       <c r="F104" s="27">
-        <v>44622</v>
-      </c>
-      <c r="G104" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H104" s="71"/>
+        <v>44631</v>
+      </c>
+      <c r="G104" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H104" s="75"/>
       <c r="I104" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="B105" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="C105" s="43"/>
-      <c r="D105" s="74"/>
-      <c r="E105" s="75"/>
-      <c r="F105" s="37"/>
-      <c r="G105" s="76"/>
-      <c r="H105" s="77"/>
-      <c r="I105" s="38"/>
-    </row>
-    <row r="106" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A106" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="B106" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C106" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D106" s="72"/>
-      <c r="E106" s="73"/>
-      <c r="F106" s="27">
-        <v>44623</v>
-      </c>
-      <c r="G106" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H106" s="71"/>
-      <c r="I106" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A105" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="B105" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="C105" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="E105" s="73"/>
+      <c r="F105" s="27">
+        <v>44631</v>
+      </c>
+      <c r="G105" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H105" s="75"/>
+      <c r="I105" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="35" t="s">
+        <v>231</v>
+      </c>
+      <c r="B106" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106" s="43"/>
+      <c r="D106" s="76"/>
+      <c r="E106" s="77"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="78"/>
+      <c r="H106" s="79"/>
+      <c r="I106" s="38"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="33" t="s">
-        <v>104</v>
+        <v>229</v>
       </c>
       <c r="B107" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C107" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D107" s="72"/>
+        <v>105</v>
+      </c>
+      <c r="C107" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" s="72" t="s">
+        <v>131</v>
+      </c>
       <c r="E107" s="73"/>
       <c r="F107" s="27">
-        <v>44623</v>
-      </c>
-      <c r="G107" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H107" s="71"/>
+        <v>44622</v>
+      </c>
+      <c r="G107" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H107" s="75"/>
       <c r="I107" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B108" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="B108" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="C108" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="D108" s="72" t="s">
-        <v>133</v>
-      </c>
+      <c r="C108" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="D108" s="72"/>
       <c r="E108" s="73"/>
       <c r="F108" s="27">
-        <v>44623</v>
-      </c>
-      <c r="G108" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H108" s="71"/>
+        <v>44622</v>
+      </c>
+      <c r="G108" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H108" s="75"/>
       <c r="I108" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A109" s="33" t="s">
-        <v>236</v>
-      </c>
-      <c r="B109" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="C109" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D109" s="72"/>
-      <c r="E109" s="73"/>
-      <c r="F109" s="27">
-        <v>44623</v>
-      </c>
-      <c r="G109" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H109" s="71"/>
-      <c r="I109" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="B109" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="C109" s="43"/>
+      <c r="D109" s="76"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="78"/>
+      <c r="H109" s="79"/>
+      <c r="I109" s="38"/>
+    </row>
+    <row r="110" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A110" s="33" t="s">
-        <v>237</v>
+        <v>99</v>
       </c>
       <c r="B110" s="40" t="s">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="C110" s="47" t="s">
         <v>12</v>
@@ -4555,20 +4609,20 @@
       <c r="F110" s="27">
         <v>44623</v>
       </c>
-      <c r="G110" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H110" s="71"/>
+      <c r="G110" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H110" s="75"/>
       <c r="I110" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A111" s="33" t="s">
-        <v>238</v>
+        <v>101</v>
       </c>
       <c r="B111" s="40" t="s">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="C111" s="47" t="s">
         <v>12</v>
@@ -4578,43 +4632,45 @@
       <c r="F111" s="27">
         <v>44623</v>
       </c>
-      <c r="G111" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H111" s="71"/>
+      <c r="G111" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H111" s="75"/>
       <c r="I111" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A112" s="33" t="s">
-        <v>239</v>
+        <v>103</v>
       </c>
       <c r="B112" s="40" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C112" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D112" s="72"/>
+        <v>13</v>
+      </c>
+      <c r="D112" s="72" t="s">
+        <v>130</v>
+      </c>
       <c r="E112" s="73"/>
       <c r="F112" s="27">
         <v>44623</v>
       </c>
-      <c r="G112" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H112" s="71"/>
+      <c r="G112" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H112" s="75"/>
       <c r="I112" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A113" s="33" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B113" s="40" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="C113" s="47" t="s">
         <v>12</v>
@@ -4624,20 +4680,20 @@
       <c r="F113" s="27">
         <v>44623</v>
       </c>
-      <c r="G113" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H113" s="71"/>
+      <c r="G113" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H113" s="75"/>
       <c r="I113" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="33" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B114" s="40" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="C114" s="47" t="s">
         <v>12</v>
@@ -4647,341 +4703,349 @@
       <c r="F114" s="27">
         <v>44623</v>
       </c>
-      <c r="G114" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H114" s="71"/>
+      <c r="G114" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H114" s="75"/>
       <c r="I114" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="33" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B115" s="40" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="C115" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="D115" s="72" t="s">
-        <v>132</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D115" s="72"/>
       <c r="E115" s="73"/>
       <c r="F115" s="27">
         <v>44623</v>
       </c>
-      <c r="G115" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H115" s="71"/>
+      <c r="G115" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H115" s="75"/>
       <c r="I115" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="35" t="s">
-        <v>243</v>
-      </c>
-      <c r="B116" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C116" s="43"/>
-      <c r="D116" s="74"/>
-      <c r="E116" s="75"/>
-      <c r="F116" s="37"/>
-      <c r="G116" s="76"/>
-      <c r="H116" s="77"/>
-      <c r="I116" s="38"/>
-    </row>
-    <row r="117" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="B116" s="40" t="s">
+        <v>111</v>
+      </c>
+      <c r="C116" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D116" s="72"/>
+      <c r="E116" s="73"/>
+      <c r="F116" s="27">
+        <v>44623</v>
+      </c>
+      <c r="G116" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H116" s="75"/>
+      <c r="I116" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="B117" s="69" t="s">
-        <v>290</v>
-      </c>
-      <c r="C117" s="50" t="s">
+        <v>237</v>
+      </c>
+      <c r="B117" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C117" s="47" t="s">
         <v>12</v>
       </c>
       <c r="D117" s="72"/>
       <c r="E117" s="73"/>
       <c r="F117" s="27">
-        <v>44650</v>
-      </c>
-      <c r="G117" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H117" s="71"/>
+        <v>44623</v>
+      </c>
+      <c r="G117" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H117" s="75"/>
       <c r="I117" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="33" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B118" s="40" t="s">
-        <v>296</v>
-      </c>
-      <c r="C118" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="C118" s="47" t="s">
         <v>12</v>
       </c>
       <c r="D118" s="72"/>
       <c r="E118" s="73"/>
       <c r="F118" s="27">
-        <v>44650</v>
-      </c>
-      <c r="G118" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H118" s="71"/>
+        <v>44623</v>
+      </c>
+      <c r="G118" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H118" s="75"/>
       <c r="I118" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="33" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B119" s="40" t="s">
-        <v>118</v>
-      </c>
-      <c r="C119" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="D119" s="72"/>
+        <v>113</v>
+      </c>
+      <c r="C119" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" s="72" t="s">
+        <v>129</v>
+      </c>
       <c r="E119" s="73"/>
       <c r="F119" s="27">
-        <v>44650</v>
-      </c>
-      <c r="G119" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H119" s="71"/>
+        <v>44623</v>
+      </c>
+      <c r="G119" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H119" s="75"/>
       <c r="I119" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="35" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B120" s="42" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="C120" s="43"/>
-      <c r="D120" s="74"/>
-      <c r="E120" s="75"/>
+      <c r="D120" s="76"/>
+      <c r="E120" s="77"/>
       <c r="F120" s="37"/>
-      <c r="G120" s="76"/>
-      <c r="H120" s="77"/>
+      <c r="G120" s="78"/>
+      <c r="H120" s="79"/>
       <c r="I120" s="38"/>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A121" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="B121" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C121" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="D121" s="72" t="s">
-        <v>141</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="B121" s="69" t="s">
+        <v>287</v>
+      </c>
+      <c r="C121" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D121" s="72"/>
       <c r="E121" s="73"/>
       <c r="F121" s="27">
-        <v>44631</v>
-      </c>
-      <c r="G121" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H121" s="71"/>
+        <v>44650</v>
+      </c>
+      <c r="G121" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H121" s="75"/>
       <c r="I121" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A122" s="33" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B122" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="C122" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="D122" s="72" t="s">
-        <v>141</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="C122" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="D122" s="72"/>
       <c r="E122" s="73"/>
       <c r="F122" s="27">
-        <v>44631</v>
-      </c>
-      <c r="G122" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H122" s="71"/>
+        <v>44650</v>
+      </c>
+      <c r="G122" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H122" s="75"/>
       <c r="I122" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="33" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B123" s="40" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C123" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="D123" s="72" t="s">
-        <v>141</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D123" s="72"/>
       <c r="E123" s="73"/>
       <c r="F123" s="27">
-        <v>44631</v>
-      </c>
-      <c r="G123" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H123" s="71"/>
+        <v>44650</v>
+      </c>
+      <c r="G123" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H123" s="75"/>
       <c r="I123" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="35" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B124" s="42" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C124" s="43"/>
-      <c r="D124" s="74"/>
-      <c r="E124" s="75"/>
+      <c r="D124" s="76"/>
+      <c r="E124" s="77"/>
       <c r="F124" s="37"/>
-      <c r="G124" s="76"/>
-      <c r="H124" s="77"/>
+      <c r="G124" s="78"/>
+      <c r="H124" s="79"/>
       <c r="I124" s="38"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="33" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B125" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="C125" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D125" s="72"/>
+        <v>114</v>
+      </c>
+      <c r="C125" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" s="72" t="s">
+        <v>138</v>
+      </c>
       <c r="E125" s="73"/>
       <c r="F125" s="27">
-        <v>44623</v>
-      </c>
-      <c r="G125" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H125" s="71"/>
+        <v>44631</v>
+      </c>
+      <c r="G125" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H125" s="75"/>
       <c r="I125" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="33" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B126" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="C126" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D126" s="72"/>
+        <v>116</v>
+      </c>
+      <c r="C126" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" s="72" t="s">
+        <v>138</v>
+      </c>
       <c r="E126" s="73"/>
       <c r="F126" s="27">
-        <v>44623</v>
-      </c>
-      <c r="G126" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H126" s="71"/>
+        <v>44631</v>
+      </c>
+      <c r="G126" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H126" s="75"/>
       <c r="I126" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" ht="71.25" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="33" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="B127" s="40" t="s">
-        <v>123</v>
-      </c>
-      <c r="C127" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D127" s="72"/>
+        <v>117</v>
+      </c>
+      <c r="C127" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" s="72" t="s">
+        <v>138</v>
+      </c>
       <c r="E127" s="73"/>
       <c r="F127" s="27">
+        <v>44631</v>
+      </c>
+      <c r="G127" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H127" s="75"/>
+      <c r="I127" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="B128" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C128" s="43"/>
+      <c r="D128" s="76"/>
+      <c r="E128" s="77"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="78"/>
+      <c r="H128" s="79"/>
+      <c r="I128" s="38"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="B129" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C129" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D129" s="72"/>
+      <c r="E129" s="73"/>
+      <c r="F129" s="27">
         <v>44623</v>
       </c>
-      <c r="G127" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H127" s="71"/>
-      <c r="I127" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="B128" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="C128" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D128" s="72"/>
-      <c r="E128" s="73"/>
-      <c r="F128" s="27">
-        <v>44623</v>
-      </c>
-      <c r="G128" s="70" t="s">
-        <v>127</v>
-      </c>
-      <c r="H128" s="71"/>
-      <c r="I128" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="35" t="s">
-        <v>256</v>
-      </c>
-      <c r="B129" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="C129" s="43"/>
-      <c r="D129" s="74"/>
-      <c r="E129" s="75"/>
-      <c r="F129" s="37"/>
-      <c r="G129" s="76"/>
-      <c r="H129" s="77"/>
-      <c r="I129" s="38"/>
-    </row>
-    <row r="130" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="G129" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H129" s="75"/>
+      <c r="I129" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" s="33" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B130" s="40" t="s">
-        <v>295</v>
+        <v>119</v>
       </c>
       <c r="C130" s="47" t="s">
         <v>12</v>
@@ -4989,98 +5053,108 @@
       <c r="D130" s="72"/>
       <c r="E130" s="73"/>
       <c r="F130" s="27">
-        <v>44649</v>
-      </c>
-      <c r="G130" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H130" s="71"/>
+        <v>44623</v>
+      </c>
+      <c r="G130" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H130" s="75"/>
       <c r="I130" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="70" x14ac:dyDescent="0.3">
       <c r="A131" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="B131" s="67" t="s">
-        <v>294</v>
-      </c>
-      <c r="C131" s="65" t="s">
+        <v>251</v>
+      </c>
+      <c r="B131" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="C131" s="47" t="s">
         <v>12</v>
       </c>
       <c r="D131" s="72"/>
       <c r="E131" s="73"/>
       <c r="F131" s="27">
+        <v>44623</v>
+      </c>
+      <c r="G131" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H131" s="75"/>
+      <c r="I131" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" s="33" t="s">
+        <v>252</v>
+      </c>
+      <c r="B132" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C132" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D132" s="72"/>
+      <c r="E132" s="73"/>
+      <c r="F132" s="27">
+        <v>44623</v>
+      </c>
+      <c r="G132" s="74" t="s">
+        <v>124</v>
+      </c>
+      <c r="H132" s="75"/>
+      <c r="I132" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="B133" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="C133" s="43"/>
+      <c r="D133" s="76"/>
+      <c r="E133" s="77"/>
+      <c r="F133" s="37"/>
+      <c r="G133" s="78"/>
+      <c r="H133" s="79"/>
+      <c r="I133" s="38"/>
+    </row>
+    <row r="134" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A134" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B134" s="40" t="s">
+        <v>292</v>
+      </c>
+      <c r="C134" s="47" t="s">
+        <v>12</v>
+      </c>
+      <c r="D134" s="72"/>
+      <c r="E134" s="73"/>
+      <c r="F134" s="27">
         <v>44649</v>
       </c>
-      <c r="G131" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H131" s="71"/>
-      <c r="I131" s="28" t="s">
+      <c r="G134" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H134" s="75"/>
+      <c r="I134" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="B132" s="67"/>
-      <c r="C132" s="65"/>
-      <c r="D132" s="67"/>
-      <c r="E132" s="68"/>
-      <c r="F132" s="27"/>
-      <c r="G132" s="65"/>
-      <c r="H132" s="66"/>
-      <c r="I132" s="28"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="B133" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C133" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D133" s="72"/>
-      <c r="E133" s="73"/>
-      <c r="F133" s="27">
-        <v>44649</v>
-      </c>
-      <c r="G133" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H133" s="71"/>
-      <c r="I133" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="B134" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C134" s="43"/>
-      <c r="D134" s="74"/>
-      <c r="E134" s="75"/>
-      <c r="F134" s="37"/>
-      <c r="G134" s="76"/>
-      <c r="H134" s="77"/>
-      <c r="I134" s="38"/>
-    </row>
-    <row r="135" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="B135" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="B135" s="67" t="s">
         <v>291</v>
       </c>
-      <c r="C135" s="48" t="s">
+      <c r="C135" s="65" t="s">
         <v>12</v>
       </c>
       <c r="D135" s="72"/>
@@ -5088,45 +5162,35 @@
       <c r="F135" s="27">
         <v>44649</v>
       </c>
-      <c r="G135" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H135" s="71"/>
+      <c r="G135" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H135" s="75"/>
       <c r="I135" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="B136" s="40" t="s">
-        <v>293</v>
-      </c>
-      <c r="C136" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="D136" s="72"/>
-      <c r="E136" s="73"/>
-      <c r="F136" s="27">
-        <v>44649</v>
-      </c>
-      <c r="G136" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H136" s="71"/>
-      <c r="I136" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+      <c r="B136" s="67"/>
+      <c r="C136" s="65"/>
+      <c r="D136" s="67"/>
+      <c r="E136" s="68"/>
+      <c r="F136" s="27"/>
+      <c r="G136" s="65"/>
+      <c r="H136" s="66"/>
+      <c r="I136" s="28"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="B137" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="C137" s="48" t="s">
+        <v>289</v>
+      </c>
+      <c r="B137" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C137" s="47" t="s">
         <v>12</v>
       </c>
       <c r="D137" s="72"/>
@@ -5134,234 +5198,226 @@
       <c r="F137" s="27">
         <v>44649</v>
       </c>
-      <c r="G137" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H137" s="71"/>
+      <c r="G137" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H137" s="75"/>
       <c r="I137" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="35" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B138" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="C138" s="53"/>
-      <c r="D138" s="74"/>
-      <c r="E138" s="75"/>
+        <v>39</v>
+      </c>
+      <c r="C138" s="43"/>
+      <c r="D138" s="76"/>
+      <c r="E138" s="77"/>
       <c r="F138" s="37"/>
-      <c r="G138" s="76"/>
-      <c r="H138" s="77"/>
+      <c r="G138" s="78"/>
+      <c r="H138" s="79"/>
       <c r="I138" s="38"/>
     </row>
-    <row r="139" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A139" s="33" t="s">
-        <v>265</v>
-      </c>
-      <c r="B139" s="60" t="s">
-        <v>290</v>
-      </c>
-      <c r="C139" s="52" t="s">
+        <v>258</v>
+      </c>
+      <c r="B139" s="40" t="s">
+        <v>288</v>
+      </c>
+      <c r="C139" s="48" t="s">
         <v>12</v>
       </c>
       <c r="D139" s="72"/>
       <c r="E139" s="73"/>
       <c r="F139" s="27">
-        <v>44636</v>
-      </c>
-      <c r="G139" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H139" s="71"/>
+        <v>44649</v>
+      </c>
+      <c r="G139" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H139" s="75"/>
       <c r="I139" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A140" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="B140" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="C140" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="B140" s="40" t="s">
+        <v>290</v>
+      </c>
+      <c r="C140" s="48" t="s">
         <v>12</v>
       </c>
       <c r="D140" s="72"/>
       <c r="E140" s="73"/>
       <c r="F140" s="27">
-        <v>44636</v>
-      </c>
-      <c r="G140" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H140" s="71"/>
+        <v>44649</v>
+      </c>
+      <c r="G140" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H140" s="75"/>
       <c r="I140" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="B141" s="60" t="s">
-        <v>289</v>
-      </c>
-      <c r="C141" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="B141" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C141" s="48" t="s">
         <v>12</v>
       </c>
       <c r="D141" s="72"/>
       <c r="E141" s="73"/>
       <c r="F141" s="27">
-        <v>44636</v>
-      </c>
-      <c r="G141" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H141" s="71"/>
+        <v>44649</v>
+      </c>
+      <c r="G141" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H141" s="75"/>
       <c r="I141" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" s="33" t="s">
-        <v>277</v>
-      </c>
-      <c r="B142" s="67" t="s">
-        <v>60</v>
-      </c>
-      <c r="C142" s="65" t="s">
-        <v>12</v>
-      </c>
-      <c r="D142" s="72"/>
-      <c r="E142" s="73"/>
-      <c r="F142" s="27">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="B142" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C142" s="53"/>
+      <c r="D142" s="76"/>
+      <c r="E142" s="77"/>
+      <c r="F142" s="37"/>
+      <c r="G142" s="78"/>
+      <c r="H142" s="79"/>
+      <c r="I142" s="38"/>
+    </row>
+    <row r="143" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A143" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="B143" s="60" t="s">
+        <v>287</v>
+      </c>
+      <c r="C143" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D143" s="72"/>
+      <c r="E143" s="73"/>
+      <c r="F143" s="27">
         <v>44636</v>
       </c>
-      <c r="G142" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H142" s="71"/>
-      <c r="I142" s="28" t="s">
+      <c r="G143" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H143" s="75"/>
+      <c r="I143" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" s="35" t="s">
-        <v>267</v>
-      </c>
-      <c r="B143" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="C143" s="53"/>
-      <c r="D143" s="74"/>
-      <c r="E143" s="75"/>
-      <c r="F143" s="37"/>
-      <c r="G143" s="76"/>
-      <c r="H143" s="77"/>
-      <c r="I143" s="38"/>
-    </row>
-    <row r="144" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="B144" s="51" t="s">
-        <v>291</v>
-      </c>
-      <c r="C144" s="52" t="s">
+        <v>263</v>
+      </c>
+      <c r="B144" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="C144" s="61" t="s">
         <v>12</v>
       </c>
       <c r="D144" s="72"/>
       <c r="E144" s="73"/>
       <c r="F144" s="27">
-        <v>44635</v>
-      </c>
-      <c r="G144" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H144" s="71"/>
+        <v>44636</v>
+      </c>
+      <c r="G144" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H144" s="75"/>
       <c r="I144" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A145" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="B145" s="58" t="s">
-        <v>274</v>
-      </c>
-      <c r="C145" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="D145" s="58"/>
-      <c r="E145" s="59"/>
+        <v>273</v>
+      </c>
+      <c r="B145" s="60" t="s">
+        <v>286</v>
+      </c>
+      <c r="C145" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="D145" s="72"/>
+      <c r="E145" s="73"/>
       <c r="F145" s="27">
-        <v>44635</v>
-      </c>
-      <c r="G145" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H145" s="71"/>
+        <v>44636</v>
+      </c>
+      <c r="G145" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H145" s="75"/>
       <c r="I145" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="B146" s="58" t="s">
-        <v>275</v>
-      </c>
-      <c r="C146" s="57" t="s">
+        <v>274</v>
+      </c>
+      <c r="B146" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C146" s="65" t="s">
         <v>12</v>
       </c>
       <c r="D146" s="72"/>
       <c r="E146" s="73"/>
       <c r="F146" s="27">
-        <v>44635</v>
-      </c>
-      <c r="G146" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H146" s="71"/>
+        <v>44636</v>
+      </c>
+      <c r="G146" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H146" s="75"/>
       <c r="I146" s="28" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A147" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="B147" s="51" t="s">
-        <v>157</v>
-      </c>
-      <c r="C147" s="52" t="s">
-        <v>12</v>
-      </c>
-      <c r="D147" s="72"/>
-      <c r="E147" s="73"/>
-      <c r="F147" s="27">
-        <v>44635</v>
-      </c>
-      <c r="G147" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H147" s="71"/>
-      <c r="I147" s="28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" s="35" t="s">
+        <v>264</v>
+      </c>
+      <c r="B147" s="42" t="s">
+        <v>123</v>
+      </c>
+      <c r="C147" s="53"/>
+      <c r="D147" s="76"/>
+      <c r="E147" s="77"/>
+      <c r="F147" s="37"/>
+      <c r="G147" s="78"/>
+      <c r="H147" s="79"/>
+      <c r="I147" s="38"/>
+    </row>
+    <row r="148" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A148" s="33" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B148" s="51" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="C148" s="52" t="s">
         <v>12</v>
@@ -5371,54 +5427,334 @@
       <c r="F148" s="27">
         <v>44635</v>
       </c>
-      <c r="G148" s="70" t="s">
-        <v>158</v>
-      </c>
-      <c r="H148" s="71"/>
+      <c r="G148" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H148" s="75"/>
       <c r="I148" s="28" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="149" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+      <c r="A149" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="B149" s="58" t="s">
+        <v>271</v>
+      </c>
+      <c r="C149" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D149" s="58"/>
+      <c r="E149" s="59"/>
+      <c r="F149" s="27">
+        <v>44635</v>
+      </c>
+      <c r="G149" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H149" s="75"/>
+      <c r="I149" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="B150" s="58" t="s">
+        <v>272</v>
+      </c>
+      <c r="C150" s="57" t="s">
+        <v>12</v>
+      </c>
+      <c r="D150" s="72"/>
+      <c r="E150" s="73"/>
+      <c r="F150" s="27">
+        <v>44635</v>
+      </c>
+      <c r="G150" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H150" s="75"/>
+      <c r="I150" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="B151" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C151" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D151" s="72"/>
+      <c r="E151" s="73"/>
+      <c r="F151" s="27">
+        <v>44635</v>
+      </c>
+      <c r="G151" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H151" s="75"/>
+      <c r="I151" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" s="33" t="s">
+        <v>269</v>
+      </c>
+      <c r="B152" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="C152" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="72"/>
+      <c r="E152" s="73"/>
+      <c r="F152" s="27">
+        <v>44635</v>
+      </c>
+      <c r="G152" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="H152" s="75"/>
+      <c r="I152" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="275">
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="G148:H148"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="G146:H146"/>
-    <mergeCell ref="G145:H145"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="G140:H140"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="G141:H141"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="G147:H147"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="G127:H127"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="G128:H128"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="G129:H129"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="G130:H130"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="G144:H144"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="G138:H138"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="G139:H139"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="G133:H133"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="G134:H134"/>
+  <mergeCells count="283">
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:H27"/>
     <mergeCell ref="D135:E135"/>
     <mergeCell ref="G135:H135"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="G136:H136"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="G85:H85"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="G53:H53"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="G86:H86"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G96:H96"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="G97:H97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="G98:H98"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="G95:H95"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="G102:H102"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="G103:H103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="G104:H104"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="G99:H99"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="G100:H100"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="G101:H101"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="G106:H106"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="G107:H107"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="G108:H108"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="G109:H109"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="G110:H110"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="G111:H111"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="G112:H112"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="G113:H113"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="G114:H114"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="G115:H115"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="G116:H116"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="G117:H117"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="G118:H118"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="G119:H119"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="G120:H120"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="G121:H121"/>
     <mergeCell ref="D122:E122"/>
     <mergeCell ref="G122:H122"/>
     <mergeCell ref="D123:E123"/>
@@ -5429,541 +5765,372 @@
     <mergeCell ref="G125:H125"/>
     <mergeCell ref="D126:E126"/>
     <mergeCell ref="G126:H126"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="G117:H117"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="G118:H118"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="G119:H119"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="G120:H120"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="G121:H121"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="G112:H112"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="G113:H113"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="G114:H114"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="G115:H115"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="G116:H116"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="G107:H107"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="G108:H108"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="G109:H109"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="G110:H110"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="G111:H111"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="G102:H102"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="G103:H103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="G104:H104"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="G106:H106"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="G101:H101"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="G53:H53"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="G98:H98"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="G99:H99"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="G100:H100"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="G95:H95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="G96:H96"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="G97:H97"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="G85:H85"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="G86:H86"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="G69:H69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="G70:H70"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G40:H40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="G127:H127"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="G128:H128"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="G129:H129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="G130:H130"/>
     <mergeCell ref="D131:E131"/>
     <mergeCell ref="G131:H131"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="G132:H132"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="G133:H133"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="G134:H134"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="G148:H148"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="G147:H147"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="G142:H142"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="G138:H138"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="G139:H139"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="G152:H152"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="G150:H150"/>
+    <mergeCell ref="G149:H149"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="G144:H144"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="G145:H145"/>
+    <mergeCell ref="G141:H141"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="G151:H151"/>
+    <mergeCell ref="G146:H146"/>
   </mergeCells>
-  <conditionalFormatting sqref="C77:C79 C26:C31 C81 C14:C17 C19:C21 C63:C67 C92:C97 C47:C49 C40:C45 C51:C61 C69:C73 C75 C87:C90 C99:C101 C33 C36 C145">
-    <cfRule type="cellIs" dxfId="60" priority="75" operator="equal">
+  <phoneticPr fontId="8" type="noConversion"/>
+  <conditionalFormatting sqref="C81:C83 C30:C35 C85 C67:C71 C96:C101 C51:C53 C44:C49 C55:C65 C73:C77 C79 C91:C94 C103:C105 C37 C40 C149 C14:C18 C21:C24">
+    <cfRule type="cellIs" dxfId="62" priority="77" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C76">
-    <cfRule type="cellIs" dxfId="59" priority="74" operator="equal">
+  <conditionalFormatting sqref="C80">
+    <cfRule type="cellIs" dxfId="61" priority="76" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C124">
+    <cfRule type="cellIs" dxfId="60" priority="63" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C72">
+    <cfRule type="cellIs" dxfId="59" priority="71" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C84">
+    <cfRule type="cellIs" dxfId="58" priority="70" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C95">
+    <cfRule type="cellIs" dxfId="57" priority="68" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C102">
+    <cfRule type="cellIs" dxfId="56" priority="67" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C106">
+    <cfRule type="cellIs" dxfId="55" priority="66" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C109">
+    <cfRule type="cellIs" dxfId="54" priority="65" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C120">
-    <cfRule type="cellIs" dxfId="58" priority="61" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C68">
-    <cfRule type="cellIs" dxfId="57" priority="69" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C80">
-    <cfRule type="cellIs" dxfId="56" priority="68" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C91">
-    <cfRule type="cellIs" dxfId="55" priority="66" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C98">
-    <cfRule type="cellIs" dxfId="54" priority="65" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C102">
     <cfRule type="cellIs" dxfId="53" priority="64" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C105">
-    <cfRule type="cellIs" dxfId="52" priority="63" operator="equal">
+  <conditionalFormatting sqref="C128">
+    <cfRule type="cellIs" dxfId="52" priority="62" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C133">
+    <cfRule type="cellIs" dxfId="51" priority="61" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C138">
+    <cfRule type="cellIs" dxfId="50" priority="60" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C107">
+    <cfRule type="cellIs" dxfId="49" priority="56" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C108">
+    <cfRule type="cellIs" dxfId="48" priority="55" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C50">
+    <cfRule type="cellIs" dxfId="47" priority="54" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C78">
+    <cfRule type="cellIs" dxfId="46" priority="53" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C86:C90">
+    <cfRule type="cellIs" dxfId="45" priority="52" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C119">
+    <cfRule type="cellIs" dxfId="44" priority="51" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C110">
+    <cfRule type="cellIs" dxfId="43" priority="49" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C112">
+    <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111">
+    <cfRule type="cellIs" dxfId="41" priority="46" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C113">
+    <cfRule type="cellIs" dxfId="40" priority="45" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C114">
+    <cfRule type="cellIs" dxfId="39" priority="44" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C116">
-    <cfRule type="cellIs" dxfId="51" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C124">
-    <cfRule type="cellIs" dxfId="50" priority="60" operator="equal">
+  <conditionalFormatting sqref="C117">
+    <cfRule type="cellIs" dxfId="37" priority="42" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C118">
+    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C115">
+    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C129">
-    <cfRule type="cellIs" dxfId="49" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C130">
+    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C131">
+    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C132">
+    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C134">
-    <cfRule type="cellIs" dxfId="48" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C103">
-    <cfRule type="cellIs" dxfId="47" priority="54" operator="equal">
+  <conditionalFormatting sqref="C137">
+    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C104">
-    <cfRule type="cellIs" dxfId="46" priority="53" operator="equal">
+  <conditionalFormatting sqref="C139">
+    <cfRule type="cellIs" dxfId="28" priority="32" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="cellIs" dxfId="45" priority="52" operator="equal">
+  <conditionalFormatting sqref="C140">
+    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C74">
-    <cfRule type="cellIs" dxfId="44" priority="51" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C82:C86">
-    <cfRule type="cellIs" dxfId="43" priority="50" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C115">
-    <cfRule type="cellIs" dxfId="42" priority="49" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C106">
-    <cfRule type="cellIs" dxfId="41" priority="47" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C108">
-    <cfRule type="cellIs" dxfId="40" priority="45" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C107">
-    <cfRule type="cellIs" dxfId="39" priority="44" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C109">
-    <cfRule type="cellIs" dxfId="38" priority="43" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C110">
-    <cfRule type="cellIs" dxfId="37" priority="42" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C112">
-    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C113">
-    <cfRule type="cellIs" dxfId="35" priority="40" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C114">
-    <cfRule type="cellIs" dxfId="34" priority="39" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C111">
-    <cfRule type="cellIs" dxfId="33" priority="38" operator="equal">
+  <conditionalFormatting sqref="C141">
+    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C125">
-    <cfRule type="cellIs" dxfId="32" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C126">
-    <cfRule type="cellIs" dxfId="31" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127">
-    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C128">
-    <cfRule type="cellIs" dxfId="29" priority="34" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C130">
-    <cfRule type="cellIs" dxfId="28" priority="33" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C133">
-    <cfRule type="cellIs" dxfId="27" priority="31" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C135">
-    <cfRule type="cellIs" dxfId="26" priority="30" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C136">
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C137">
-    <cfRule type="cellIs" dxfId="24" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C121">
-    <cfRule type="cellIs" dxfId="23" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C122">
-    <cfRule type="cellIs" dxfId="22" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C123">
-    <cfRule type="cellIs" dxfId="21" priority="25" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C117">
     <cfRule type="cellIs" dxfId="20" priority="24" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C118">
+  <conditionalFormatting sqref="C42">
     <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C119">
+  <conditionalFormatting sqref="C41">
     <cfRule type="cellIs" dxfId="18" priority="22" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C38">
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+  <conditionalFormatting sqref="C152">
+    <cfRule type="cellIs" dxfId="17" priority="20" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="cellIs" dxfId="16" priority="20" operator="equal">
+  <conditionalFormatting sqref="C142">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C147">
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C151">
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C148">
-    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C138">
-    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C143">
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C147">
     <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C144">
+  <conditionalFormatting sqref="C26">
     <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C139">
+  <conditionalFormatting sqref="C27">
     <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+  <conditionalFormatting sqref="C150">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
+  <conditionalFormatting sqref="C144">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C145">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C146">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C140">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C141">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C34">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
-      <formula>"Fail"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22">
+  <conditionalFormatting sqref="C135:C136">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C142">
+  <conditionalFormatting sqref="C20">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C131:C132">
+  <conditionalFormatting sqref="C28">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C103:C104 C121:C123 C106:C115 C125:C128 C135:C148 C117:C119 C13:C101 C130:C133">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C107:C108 C125:C127 C110:C119 C129:C132 C139:C152 C121:C123 C134:C137 C13:C105" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5974,7 +6141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5984,21 +6151,21 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="8" width="6.625" customWidth="1"/>
-    <col min="9" max="12" width="12.625" customWidth="1"/>
-    <col min="13" max="13" width="6.625" customWidth="1"/>
-    <col min="14" max="15" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="12.58203125" customWidth="1"/>
+    <col min="2" max="8" width="6.58203125" customWidth="1"/>
+    <col min="9" max="12" width="12.58203125" customWidth="1"/>
+    <col min="13" max="13" width="6.58203125" customWidth="1"/>
+    <col min="14" max="15" width="12.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="23" x14ac:dyDescent="0.5">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="8" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>16</v>
       </c>
@@ -6031,18 +6198,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="6" spans="1:16" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="8" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>9</v>
       </c>
@@ -6069,7 +6236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>0</v>
       </c>
@@ -6096,7 +6263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -6113,7 +6280,7 @@
       <c r="N8" s="5"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -6130,18 +6297,18 @@
       <c r="N9" s="5"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O10" s="4"/>
       <c r="P10" s="4"/>
     </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
       <c r="O11" s="4"/>
       <c r="P11" s="4"/>
     </row>
-    <row r="12" spans="1:16" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" s="8" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -6172,7 +6339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>1</v>
       </c>
@@ -6203,7 +6370,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>2</v>
       </c>
@@ -6234,7 +6401,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="56.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
         <v>3</v>
       </c>
@@ -6265,7 +6432,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <v>4</v>
       </c>
@@ -6294,7 +6461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="24"/>
       <c r="C17" s="25"/>
@@ -6311,7 +6478,7 @@
       <c r="N17" s="25"/>
       <c r="O17" s="28"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="24"/>
       <c r="C18" s="25"/>
@@ -6328,7 +6495,7 @@
       <c r="N18" s="25"/>
       <c r="O18" s="28"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="23"/>
       <c r="B19" s="24"/>
       <c r="C19" s="25"/>
@@ -6345,7 +6512,7 @@
       <c r="N19" s="25"/>
       <c r="O19" s="28"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="23"/>
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
@@ -6362,7 +6529,7 @@
       <c r="N20" s="25"/>
       <c r="O20" s="28"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="24"/>
       <c r="C21" s="25"/>
@@ -6379,7 +6546,7 @@
       <c r="N21" s="25"/>
       <c r="O21" s="28"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="23"/>
       <c r="B22" s="24"/>
       <c r="C22" s="25"/>
@@ -6396,7 +6563,7 @@
       <c r="N22" s="25"/>
       <c r="O22" s="28"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="24"/>
       <c r="C23" s="25"/>
@@ -6413,7 +6580,7 @@
       <c r="N23" s="25"/>
       <c r="O23" s="28"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="23"/>
       <c r="B24" s="24"/>
       <c r="C24" s="25"/>
@@ -6430,7 +6597,7 @@
       <c r="N24" s="25"/>
       <c r="O24" s="28"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="25"/>
@@ -6447,7 +6614,7 @@
       <c r="N25" s="25"/>
       <c r="O25" s="28"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
       <c r="B26" s="24"/>
       <c r="C26" s="25"/>
@@ -6464,7 +6631,7 @@
       <c r="N26" s="25"/>
       <c r="O26" s="28"/>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
       <c r="B27" s="24"/>
       <c r="C27" s="25"/>
@@ -6481,7 +6648,7 @@
       <c r="N27" s="25"/>
       <c r="O27" s="28"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
@@ -6498,7 +6665,7 @@
       <c r="N28" s="25"/>
       <c r="O28" s="28"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="23"/>
       <c r="B29" s="24"/>
       <c r="C29" s="25"/>
@@ -6515,7 +6682,7 @@
       <c r="N29" s="25"/>
       <c r="O29" s="28"/>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="23"/>
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
@@ -6532,7 +6699,7 @@
       <c r="N30" s="25"/>
       <c r="O30" s="28"/>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
       <c r="B31" s="24"/>
       <c r="C31" s="25"/>
@@ -6549,7 +6716,7 @@
       <c r="N31" s="25"/>
       <c r="O31" s="28"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="25"/>
@@ -6566,7 +6733,7 @@
       <c r="N32" s="25"/>
       <c r="O32" s="28"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
@@ -6583,7 +6750,7 @@
       <c r="N33" s="25"/>
       <c r="O33" s="28"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
@@ -6600,7 +6767,7 @@
       <c r="N34" s="25"/>
       <c r="O34" s="28"/>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="23"/>
       <c r="B35" s="24"/>
       <c r="C35" s="25"/>
@@ -6617,7 +6784,7 @@
       <c r="N35" s="25"/>
       <c r="O35" s="28"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
@@ -6634,7 +6801,7 @@
       <c r="N36" s="25"/>
       <c r="O36" s="28"/>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
@@ -6651,7 +6818,7 @@
       <c r="N37" s="25"/>
       <c r="O37" s="28"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
@@ -6668,7 +6835,7 @@
       <c r="N38" s="25"/>
       <c r="O38" s="28"/>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="23"/>
       <c r="B39" s="24"/>
       <c r="C39" s="25"/>
@@ -6685,7 +6852,7 @@
       <c r="N39" s="25"/>
       <c r="O39" s="28"/>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
@@ -6709,7 +6876,7 @@
     <mergeCell ref="J15:K15"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I40">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I13:I40" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Pass,Fail"</formula1>
     </dataValidation>
   </dataValidations>
